--- a/data/game001/bglightning.xlsx
+++ b/data/game001/bglightning.xlsx
@@ -79,7 +79,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -134,10 +134,32 @@
       <left style="medium">
         <color indexed="8"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
@@ -166,6 +188,24 @@
       </left>
       <right style="medium">
         <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
       </right>
       <top/>
       <bottom/>
@@ -199,13 +239,89 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -221,22 +337,58 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1319,7 +1471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1328,7 +1480,8 @@
     <col min="1" max="1" width="17.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
     <col min="3" max="5" hidden="1" width="16.3333" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.1" customHeight="1">
@@ -1341,50 +1494,105 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" ht="14.6" customHeight="1">
-      <c r="A2" t="s" s="5">
+      <c r="A2" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="8">
         <v>290</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" ht="14.6" customHeight="1">
-      <c r="A3" t="s" s="5">
+      <c r="A3" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="B3" s="6">
-        <v>776</v>
+      <c r="B3" s="8">
+        <v>0</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" ht="14.6" customHeight="1">
-      <c r="A4" t="s" s="9">
+      <c r="A4" t="s" s="13">
         <v>4</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="8">
         <v>8808</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" ht="14.6" customHeight="1">
-      <c r="A5" t="s" s="9">
+      <c r="A5" t="s" s="13">
         <v>5</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="8">
         <v>126</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" ht="14.7" customHeight="1">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" ht="14.7" customHeight="1">
+      <c r="A7" s="19"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" ht="14.7" customHeight="1">
+      <c r="A8" s="19"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" ht="14.7" customHeight="1">
+      <c r="A9" s="19"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" ht="14.7" customHeight="1">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
